--- a/Task Estimation.xlsx
+++ b/Task Estimation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>APCRSHR</t>
+  </si>
+  <si>
+    <t>Slider</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="B1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,10 +655,10 @@
     </row>
     <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
-        <v>42361</v>
+        <v>42418</v>
       </c>
       <c r="C5" s="8">
-        <v>42364</v>
+        <v>42421</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>3</v>
@@ -667,11 +670,11 @@
         <v>9</v>
       </c>
       <c r="G5" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="10">
-        <f t="shared" ref="I5:I7" si="0">DAYS360(B5,C5,FALSE)</f>
+        <f t="shared" ref="I5:I6" si="0">DAYS360(B5,C5,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J5" s="4"/>
@@ -687,10 +690,10 @@
     </row>
     <row r="6" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
-        <v>42364</v>
+        <v>42418</v>
       </c>
       <c r="C6" s="12">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>15</v>
@@ -702,12 +705,12 @@
         <v>9</v>
       </c>
       <c r="G6" s="17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="20"/>
@@ -722,10 +725,10 @@
     </row>
     <row r="7" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <v>42361</v>
+        <v>42418</v>
       </c>
       <c r="C7" s="8">
-        <v>42364</v>
+        <v>42419</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>14</v>
@@ -754,21 +757,35 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+    <row r="8" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
+        <v>42420</v>
+      </c>
+      <c r="C8" s="12">
+        <v>42421</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
